--- a/biology/Neurosciences/HVC_(partie_du_cerveau_des_oiseaux)/HVC_(partie_du_cerveau_des_oiseaux).xlsx
+++ b/biology/Neurosciences/HVC_(partie_du_cerveau_des_oiseaux)/HVC_(partie_du_cerveau_des_oiseaux).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L' hyperstriatum ventral, pars caudalis (HVc), ou high vocal center (haut centre vocal), officiellement appelé HVC, est un noyau situé dans le cerveau des passériformes nécessaire à l'éducation et à la production du chant des oiseaux. Il est situé dans la partie latérale du nidopallium (en) caudal et est responsable de la vocalisation des oiseaux
 Deux des classes d'oiseaux qui apprennent à émettre des sons chantés, les colibris et les perroquets, semblent avoir des structures cérébrales similaires à celle de l'HVC des passériformes. Étant donné que ces trois différentes classes dérivent indépendamment de la même capacité génétique à apprendre le chant, ces similarités figurent comme un parfait exemple d'homoplasie.
@@ -512,9 +524,11 @@
           <t>Nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'HVC a d'abord été appelé hyperstriatum ventrale, pars caudalis (HVc)[2]. Certains chercheurs[Qui ?] l'ont ensuite rapproché du high vocal center, en raison de son rôle important dans l'apprentissage du chant[réf. souhaitée]. Lorsque la nomenclature du cerveau de l'oiseau a officiellement été revisitée en 2004[3], ces noms ont officiellement été abandonnés[4]. L'HVC devient alors le nom officiel de cette région du cerveau de l'oiseau et tout autre terme servant à la désigner devient désuète[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'HVC a d'abord été appelé hyperstriatum ventrale, pars caudalis (HVc). Certains chercheurs[Qui ?] l'ont ensuite rapproché du high vocal center, en raison de son rôle important dans l'apprentissage du chant[réf. souhaitée]. Lorsque la nomenclature du cerveau de l'oiseau a officiellement été revisitée en 2004, ces noms ont officiellement été abandonnés. L'HVC devient alors le nom officiel de cette région du cerveau de l'oiseau et tout autre terme servant à la désigner devient désuète,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'HVC est situé dans le nidopallium (en) (partie frontale du cerveau). Il est lié à la voie motrice du son de l'oiseau via le robuste noyau de l'arcopallium (RA) et à la voie prosencéphale via les ganglions de la base[1]. Il perçoit la décharge corollaire au moyen du noyau sous-thalamique et entre en contact avec le système auditif grâce à des projections d'une partie du cerveau appelée le mésopallium caudo-latéral (CMM) depuis le nucleus interfacialis (NIf)[7]. Trois classes fonctionnelles de neurones, chacune distinguées par des propriétés anatomiques et physiologiques, ont pu être identifiées dans l'HVC : les interneurones, les cellules de projection-RA(HVCRA), et les cellules de projection-X (HVCX)[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'HVC est situé dans le nidopallium (en) (partie frontale du cerveau). Il est lié à la voie motrice du son de l'oiseau via le robuste noyau de l'arcopallium (RA) et à la voie prosencéphale via les ganglions de la base. Il perçoit la décharge corollaire au moyen du noyau sous-thalamique et entre en contact avec le système auditif grâce à des projections d'une partie du cerveau appelée le mésopallium caudo-latéral (CMM) depuis le nucleus interfacialis (NIf). Trois classes fonctionnelles de neurones, chacune distinguées par des propriétés anatomiques et physiologiques, ont pu être identifiées dans l'HVC : les interneurones, les cellules de projection-RA(HVCRA), et les cellules de projection-X (HVCX).
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Voir plus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vocalisation des oiseaux
 Intelligence des oiseaux
